--- a/src/store/xlsx/-2023-4-16.xlsx
+++ b/src/store/xlsx/-2023-4-16.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
   <si>
     <t>Level</t>
   </si>
@@ -58,70 +58,283 @@
     <t>A2</t>
   </si>
   <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>Santocx_pocarr</t>
-  </si>
-  <si>
-    <t>Apr 14</t>
-  </si>
-  <si>
-    <t>21:30</t>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>Dowgh-santos_pocarr2</t>
+  </si>
+  <si>
+    <t>Apr 15</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>3940653413107205</t>
+  </si>
+  <si>
+    <t>Dowgh Santos</t>
+  </si>
+  <si>
+    <t>Bounty Hunters Deepstack Turbo $54</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>174.73</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>PS.es</t>
+  </si>
+  <si>
+    <t>3564925044</t>
+  </si>
+  <si>
+    <t>Magnus-Futsal</t>
+  </si>
+  <si>
+    <t>SCOOP-160: €50 Hall of Fame [Progressive KO, 6-Max, Turbo], €20,000 guaranteed</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>20:30</t>
   </si>
   <si>
     <t>PS.eu</t>
   </si>
   <si>
-    <t>3575889659</t>
-  </si>
-  <si>
-    <t>Santocx</t>
-  </si>
-  <si>
-    <t>Bounty Builder $55, $30K Gtd</t>
+    <t>3573544597</t>
+  </si>
+  <si>
+    <t>Dowgh-Santos</t>
+  </si>
+  <si>
+    <t>The Sprint: $55 NLHE [Progressive KO], $10K Gtd</t>
   </si>
   <si>
     <t>55.00</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>21:05</t>
-  </si>
-  <si>
-    <t>WPN</t>
-  </si>
-  <si>
-    <t>29492692</t>
-  </si>
-  <si>
-    <t>Turbo - $750 GTD</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>20:15</t>
-  </si>
-  <si>
-    <t>29492429</t>
-  </si>
-  <si>
-    <t>PKO Turbo - $1,000 GTD</t>
+    <t>18.75</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>17:40</t>
+  </si>
+  <si>
+    <t>3940653772701701</t>
+  </si>
+  <si>
+    <t>Big Game Omaholic $215</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>3940651466032645</t>
+  </si>
+  <si>
+    <t>Omaholic Bounty Deepstack $108</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>3940651978785285</t>
+  </si>
+  <si>
+    <t>Omaholic Bounty MILLION$, $250K GTD [Stage 1]</t>
+  </si>
+  <si>
+    <t>163.37</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>103</t>
+    <t>171</t>
+  </si>
+  <si>
+    <t>3575892381</t>
+  </si>
+  <si>
+    <t>Hot $109 [Progressive KO], $12K Gtd</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>3940651782702597</t>
+  </si>
+  <si>
+    <t>Bounty Hunters Deepstack Turbo $85.50</t>
+  </si>
+  <si>
+    <t>85.50</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>3940653353271301</t>
+  </si>
+  <si>
+    <t>Bounty Superstack $85.50</t>
+  </si>
+  <si>
+    <t>367.76</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>3575892356</t>
+  </si>
+  <si>
+    <t>Hot $55 [Progressive KO], $12K Gtd</t>
+  </si>
+  <si>
+    <t>142.68</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>3575893030</t>
+  </si>
+  <si>
+    <t>Omania $82 PLO8 [Weekend Special], $2.5K Gtd</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>3940653185499141</t>
+  </si>
+  <si>
+    <t>Ultra Deepstack Bounty Turbo $54</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>3940651962008069</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>3575892321</t>
+  </si>
+  <si>
+    <t>Hot $82 [Progressive KO], $5K Gtd</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>3940652179062789</t>
+  </si>
+  <si>
+    <t>MYSTERY BOUNTY Mini Main - $100K Top Bounty [Stage 1]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>3940650685826565</t>
+  </si>
+  <si>
+    <t>Zodiac PLO-NL Main Event ¥530 [Bounty]</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>3940652095176709</t>
+  </si>
+  <si>
+    <t>1134</t>
   </si>
 </sst>
 </file>
@@ -498,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -576,28 +789,28 @@
       <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="J2">
-        <v>0</v>
+      <c r="J2" t="s">
+        <v>24</v>
       </c>
       <c r="K2">
-        <v>33300</v>
+        <v>27350</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O2">
-        <v>70</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -606,87 +819,745 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>750</v>
+        <v>20000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>10900</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>21094</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5">
+        <v>82</v>
+      </c>
+      <c r="O5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6">
+        <v>4200</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
+        <v>250000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>72</v>
+      </c>
+      <c r="O7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>13800</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>78</v>
+      </c>
+      <c r="O8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1240</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>18480</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
         <v>68</v>
       </c>
-      <c r="O4" t="s">
-        <v>31</v>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10">
+        <v>62400</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11">
+        <v>14200</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11">
+        <v>74</v>
+      </c>
+      <c r="O11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3075</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12">
+        <v>78</v>
+      </c>
+      <c r="O12">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>42800</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13">
+        <v>74</v>
+      </c>
+      <c r="O13">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>250000</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14">
+        <v>72</v>
+      </c>
+      <c r="O14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>7200</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15">
+        <v>78</v>
+      </c>
+      <c r="O15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>1500000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16">
+        <v>72</v>
+      </c>
+      <c r="O16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>27692</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17">
+        <v>78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1500000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18">
+        <v>70</v>
+      </c>
+      <c r="O18">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
